--- a/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1726,17 +1726,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.60546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1745,28 +1745,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.8203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.71875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.67578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="51.2734375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="62.85546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="50.9453125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="57.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Coverage</t>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-coverage</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -272,7 +272,7 @@
 </t>
   </si>
   <si>
-    <t>Financial instrument which may be used to reimburse or pay for health care products and services. Includes both insurance and self-payment.</t>
+    <t>This is basic constraint on Coverage for use in CH Core resources.</t>
   </si>
   <si>
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
@@ -491,6 +491,13 @@
     <t>Allows coverages to be distinguished and referenced.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -541,9 +548,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -882,6 +886,37 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>Coverage.identifier:insuranceCardNumber</t>
+  </si>
+  <si>
+    <t>insuranceCardNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-veka-identifier}
+</t>
+  </si>
+  <si>
+    <t>Insurance card number of the patient (20 digits)</t>
+  </si>
+  <si>
+    <t>Cardnumber Swiss insurance card v1</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.16.756.5.30.1.123.100.1.1.1"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>Coverage.status</t>
   </si>
   <si>
@@ -936,7 +971,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -967,7 +1002,7 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1089,11 +1124,11 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson) &lt;&lt;contained, referenced&gt;&gt;
 </t>
   </si>
   <si>
-    <t>Issuer of the policy</t>
+    <t>Issuer of the policy (if it is not the patient him/herself, represent the payor as a contained resource)</t>
   </si>
   <si>
     <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.</t>
@@ -1172,10 +1207,7 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
+    <t>http://fhir.ch/ig/ch-core/ValueSet/bfs-medstats-21-encountertype</t>
   </si>
   <si>
     <t>Coverage.class.value</t>
@@ -1717,7 +1749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1726,17 +1758,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.57421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.6953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="140.95703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="166.03125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1745,28 +1777,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.67578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.7265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="54.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="50.9453125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="57.16796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="62.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3054,16 +3086,14 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>146</v>
@@ -3081,30 +3111,30 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3127,13 +3157,13 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3184,7 +3214,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3202,7 +3232,7 @@
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>80</v>
@@ -3219,10 +3249,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3251,7 +3281,7 @@
         <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
         <v>138</v>
@@ -3292,19 +3322,19 @@
         <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3322,7 +3352,7 @@
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3339,10 +3369,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3368,16 +3398,16 @@
         <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3402,13 +3432,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3426,7 +3456,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3444,7 +3474,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3461,10 +3491,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3487,19 +3517,19 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3524,11 +3554,11 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3546,7 +3576,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3564,7 +3594,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3573,7 +3603,7 @@
         <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -3581,10 +3611,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3607,13 +3637,13 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3664,7 +3694,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3682,7 +3712,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3699,10 +3729,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3731,7 +3761,7 @@
         <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>138</v>
@@ -3772,19 +3802,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3802,7 +3832,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3819,10 +3849,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3845,19 +3875,19 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3906,7 +3936,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3924,7 +3954,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -3933,7 +3963,7 @@
         <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -3941,10 +3971,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3967,13 +3997,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4024,7 +4054,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4042,7 +4072,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4059,10 +4089,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4091,7 +4121,7 @@
         <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>138</v>
@@ -4132,19 +4162,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4162,7 +4192,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4179,10 +4209,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4208,16 +4238,16 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4266,7 +4296,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4284,7 +4314,7 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4293,7 +4323,7 @@
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4301,10 +4331,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4327,16 +4357,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4386,7 +4416,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4404,7 +4434,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4413,7 +4443,7 @@
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4421,10 +4451,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4450,14 +4480,14 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4506,7 +4536,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4524,7 +4554,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4533,7 +4563,7 @@
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4541,10 +4571,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4567,17 +4597,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4626,7 +4656,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4644,7 +4674,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4653,7 +4683,7 @@
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4661,10 +4691,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4687,19 +4717,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4748,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4766,7 +4796,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4775,7 +4805,7 @@
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -4783,10 +4813,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4809,19 +4839,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4870,7 +4900,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4888,7 +4918,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4897,7 +4927,7 @@
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -4905,10 +4935,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4934,16 +4964,16 @@
         <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4956,7 +4986,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -4992,7 +5022,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5010,7 +5040,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5019,7 +5049,7 @@
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5027,10 +5057,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5053,16 +5083,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5076,7 +5106,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5112,7 +5142,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5130,7 +5160,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5139,7 +5169,7 @@
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5147,10 +5177,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5173,13 +5203,13 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5230,7 +5260,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5248,7 +5278,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5257,7 +5287,7 @@
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5265,10 +5295,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5291,16 +5321,16 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5350,7 +5380,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5368,7 +5398,7 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5377,7 +5407,7 @@
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5385,45 +5415,47 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5433,7 +5465,7 @@
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -5448,13 +5480,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5472,34 +5504,34 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5518,7 +5550,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>89</v>
@@ -5527,13 +5559,13 @@
         <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>291</v>
@@ -5541,9 +5573,11 @@
       <c r="M32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5568,11 +5602,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5593,7 +5629,7 @@
         <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>89</v>
@@ -5605,19 +5641,19 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -5625,10 +5661,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5642,7 +5678,7 @@
         <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5651,19 +5687,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5688,13 +5722,11 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5712,7 +5744,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5733,16 +5765,16 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5855,24 +5887,24 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5895,17 +5927,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5954,7 +5988,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5975,24 +6009,24 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6000,13 +6034,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6015,17 +6049,17 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6074,10 +6108,10 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>89</v>
@@ -6089,30 +6123,30 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6120,13 +6154,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6135,19 +6169,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6196,10 +6228,10 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>89</v>
@@ -6211,30 +6243,30 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6254,22 +6286,22 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6294,13 +6326,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6318,7 +6350,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6345,7 +6377,7 @@
         <v>338</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6353,10 +6385,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6376,20 +6408,22 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6414,13 +6448,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6438,7 +6472,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6453,19 +6487,19 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -6473,10 +6507,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6484,13 +6518,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6499,17 +6533,15 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N40" t="s" s="2">
         <v>351</v>
       </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>352</v>
       </c>
@@ -6560,13 +6592,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6575,22 +6607,22 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6606,19 +6638,19 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>358</v>
@@ -6685,7 +6717,7 @@
         <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
@@ -6703,24 +6735,24 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6731,7 +6763,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6743,16 +6775,20 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>160</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6800,25 +6836,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6835,21 +6871,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6861,17 +6897,15 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6920,25 +6954,25 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6955,14 +6989,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6975,26 +7009,24 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O44" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7042,7 +7074,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7060,7 +7092,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7077,43 +7109,45 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7138,13 +7172,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7162,25 +7196,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7197,10 +7231,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7223,19 +7257,17 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7260,13 +7292,11 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7284,7 +7314,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>89</v>
@@ -7308,21 +7338,21 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7330,7 +7360,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7345,17 +7375,19 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7404,10 +7436,10 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>89</v>
@@ -7428,21 +7460,21 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7465,17 +7497,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7524,7 +7556,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7548,21 +7580,21 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7585,17 +7617,17 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>159</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7644,7 +7676,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7668,10 +7700,10 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -7679,21 +7711,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7702,22 +7734,20 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7766,13 +7796,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7790,7 +7820,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7801,21 +7831,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7827,16 +7857,20 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7884,25 +7918,25 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7919,21 +7953,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7945,17 +7979,15 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8004,25 +8036,25 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8039,14 +8071,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8059,26 +8091,24 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8126,7 +8156,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8144,7 +8174,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8161,45 +8191,45 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>411</v>
+        <v>144</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8224,13 +8254,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8248,25 +8278,25 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8283,10 +8313,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8294,7 +8324,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8309,19 +8339,19 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8346,13 +8376,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8370,10 +8400,10 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
@@ -8394,21 +8424,21 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8416,10 +8446,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8428,20 +8458,22 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8490,13 +8522,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8514,21 +8546,21 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8539,7 +8571,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8551,16 +8583,18 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>161</v>
+        <v>431</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8608,25 +8642,25 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>162</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8643,21 +8677,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8669,17 +8703,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8728,25 +8760,25 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8763,14 +8795,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8783,26 +8815,24 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>136</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8850,7 +8880,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8868,7 +8898,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8885,43 +8915,45 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>429</v>
+        <v>144</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8946,13 +8978,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8970,25 +9002,25 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9005,10 +9037,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9016,7 +9048,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -9031,17 +9063,17 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9066,13 +9098,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9090,10 +9122,10 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>89</v>
@@ -9125,10 +9157,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9148,22 +9180,20 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9212,7 +9242,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9247,10 +9277,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9261,7 +9291,7 @@
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9273,17 +9303,19 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>443</v>
+        <v>233</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9332,13 +9364,13 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
@@ -9350,23 +9382,143 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9376,7 +9528,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -491,7 +491,7 @@
     <t>Allows coverages to be distinguished and referenced.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -959,7 +959,7 @@
     <t>The order of application of coverages is dependent on the types of coverage.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-orf/ValueSet/ch-orf-vs-coveragetype</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/mainguarantor</t>
   </si>
   <si>
     <t>FiveWs.class</t>

--- a/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -907,74 +907,64 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>Act.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Coverage.type</t>
+  </si>
+  <si>
+    <t>Coverage category such as medical or accident</t>
+  </si>
+  <si>
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>The order of application of coverages is dependent on the types of coverage.</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/mainguarantor</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>IN1-15</t>
+  </si>
+  <si>
+    <t>Coverage.policyHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>Coverage.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>Act.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Coverage.type</t>
-  </si>
-  <si>
-    <t>Coverage category such as medical or accident</t>
-  </si>
-  <si>
-    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>The order of application of coverages is dependent on the types of coverage.</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-term/ValueSet/mainguarantor</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>IN1-15</t>
-  </si>
-  <si>
-    <t>Coverage.policyHolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
-</t>
-  </si>
-  <si>
     <t>Owner of the policy</t>
   </si>
   <si>
@@ -1002,7 +992,7 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1124,7 +1114,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson) &lt;&lt;contained, referenced&gt;&gt;
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson) &lt;&lt;contained, referenced&gt;&gt;
 </t>
   </si>
   <si>
@@ -1758,17 +1748,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.6953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="166.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="182.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1777,28 +1767,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.8203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.7265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.43359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="62.85546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="43.95703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="53.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3028,7 +3018,7 @@
         <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>80</v>
@@ -5440,7 +5430,7 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>283</v>
@@ -5513,36 +5503,36 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5568,16 +5558,16 @@
         <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5605,10 +5595,10 @@
         <v>176</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5626,7 +5616,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>89</v>
@@ -5641,13 +5631,13 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5661,10 +5651,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5690,14 +5680,14 @@
         <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5726,7 +5716,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5744,7 +5734,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5765,13 +5755,13 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -5779,10 +5769,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5805,19 +5795,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5866,7 +5856,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5887,24 +5877,24 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5927,19 +5917,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5988,7 +5978,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6009,24 +5999,24 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6052,14 +6042,14 @@
         <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6108,7 +6098,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6129,24 +6119,24 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6169,17 +6159,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6228,7 +6218,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>89</v>
@@ -6243,30 +6233,30 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6292,16 +6282,16 @@
         <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6350,7 +6340,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6374,10 +6364,10 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6385,10 +6375,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6414,16 +6404,16 @@
         <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6448,13 +6438,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6472,7 +6462,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6496,7 +6486,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6507,10 +6497,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6536,14 +6526,14 @@
         <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6592,7 +6582,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6607,19 +6597,19 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6627,10 +6617,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6653,19 +6643,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6714,7 +6704,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>89</v>
@@ -6735,24 +6725,24 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6775,19 +6765,19 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6836,7 +6826,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6871,10 +6861,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6989,10 +6979,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7109,14 +7099,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7138,10 +7128,10 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>138</v>
@@ -7196,7 +7186,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7231,10 +7221,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7260,14 +7250,14 @@
         <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7292,11 +7282,11 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7314,7 +7304,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>89</v>
@@ -7349,10 +7339,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7378,16 +7368,16 @@
         <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7436,7 +7426,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>89</v>
@@ -7460,21 +7450,21 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7500,14 +7490,14 @@
         <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7556,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7580,21 +7570,21 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7617,17 +7607,17 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7676,7 +7666,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7703,7 +7693,7 @@
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -7711,10 +7701,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7740,14 +7730,14 @@
         <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7796,7 +7786,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7820,7 +7810,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7831,14 +7821,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7857,19 +7847,19 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7918,7 +7908,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7953,10 +7943,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8071,10 +8061,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8191,14 +8181,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8220,10 +8210,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8278,7 +8268,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8313,10 +8303,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8342,16 +8332,16 @@
         <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8376,13 +8366,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8400,7 +8390,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8435,10 +8425,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8461,19 +8451,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8522,7 +8512,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>89</v>
@@ -8546,21 +8536,21 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8583,17 +8573,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8642,7 +8632,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8677,10 +8667,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8795,10 +8785,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8915,14 +8905,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8944,10 +8934,10 @@
         <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>138</v>
@@ -9002,7 +8992,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9037,10 +9027,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9066,14 +9056,14 @@
         <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9098,13 +9088,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9122,7 +9112,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>89</v>
@@ -9157,10 +9147,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9186,14 +9176,14 @@
         <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9242,7 +9232,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9277,10 +9267,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9306,16 +9296,16 @@
         <v>233</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9364,7 +9354,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9399,10 +9389,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9425,17 +9415,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9484,7 +9474,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9508,13 +9498,13 @@
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-coverage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -864,7 +864,7 @@
     <t>Coverage.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
     <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship|4.0.1</t>
   </si>
   <si>
     <t>C03</t>
@@ -1197,7 +1197,10 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-core/ValueSet/bfs-medstats-21-encountertype</t>
+    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-class|4.0.1</t>
   </si>
   <si>
     <t>Coverage.class.value</t>
@@ -1313,13 +1316,13 @@
     <t>The types of services to which patient copayments are specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
+    <t>http://hl7.org/fhir/ValueSet/coverage-copay-type|4.0.1</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.value[x]</t>
   </si>
   <si>
-    <t>Quantity {SimpleQuantity}
+    <t>Quantity {SimpleQuantity|4.0.1}
 Money</t>
   </si>
   <si>
@@ -1371,7 +1374,7 @@
     <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
+    <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception|4.0.1</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception.period</t>
@@ -1404,7 +1407,7 @@
     <t>Coverage.contract</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Contract)
+    <t xml:space="preserve">Reference(Contract|4.0.1)
 </t>
   </si>
   <si>
@@ -1773,7 +1776,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.43359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.0625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.1953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2637,7 +2640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>181</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>192</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>203</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>218</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>241</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>258</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>287</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>297</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>324</v>
       </c>
@@ -6615,7 +6618,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>354</v>
       </c>
@@ -7284,9 +7287,11 @@
       <c r="X46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y46" s="2"/>
+      <c r="Y46" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7339,10 +7344,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7368,16 +7373,16 @@
         <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7426,7 +7431,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>89</v>
@@ -7450,21 +7455,21 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7490,14 +7495,14 @@
         <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7546,7 +7551,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7570,21 +7575,21 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7607,17 +7612,17 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7666,7 +7671,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7701,10 +7706,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7730,14 +7735,14 @@
         <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7786,7 +7791,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7810,7 +7815,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7821,14 +7826,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7850,16 +7855,16 @@
         <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7908,7 +7913,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7943,10 +7948,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8061,10 +8066,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8181,10 +8186,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8303,10 +8308,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8332,16 +8337,16 @@
         <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8369,10 +8374,10 @@
         <v>342</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8390,7 +8395,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8425,10 +8430,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8451,19 +8456,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8512,7 +8517,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>89</v>
@@ -8536,21 +8541,21 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8576,14 +8581,14 @@
         <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8632,7 +8637,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8667,10 +8672,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8785,10 +8790,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8905,10 +8910,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9027,10 +9032,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9056,14 +9061,14 @@
         <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9088,13 +9093,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9112,7 +9117,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>89</v>
@@ -9147,10 +9152,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9176,14 +9181,14 @@
         <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9232,7 +9237,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9267,10 +9272,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9296,16 +9301,16 @@
         <v>233</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9354,7 +9359,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9389,10 +9394,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9415,17 +9420,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9474,7 +9479,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9501,7 +9506,7 @@
         <v>311</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>313</v>
@@ -9509,12 +9514,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP64">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
